--- a/Development/de.dlr.exchange.excel.trace.xtend/test/data/reference/testReqTrace.xlsx
+++ b/Development/de.dlr.exchange.excel.trace.xtend/test/data/reference/testReqTrace.xlsx
@@ -22,46 +22,46 @@
     <t>testReqTrace</t>
   </si>
   <si>
-    <t>Component 1.1.1| Component 1.1</t>
-  </si>
-  <si>
-    <t>Component 1.2| Component 1</t>
-  </si>
-  <si>
-    <t>Component 2| testReqTrace</t>
-  </si>
-  <si>
-    <t>Component 3| testReqTrace</t>
-  </si>
-  <si>
-    <t>Component 4| testReqTrace</t>
-  </si>
-  <si>
-    <t>Component 6| testReqTrace</t>
-  </si>
-  <si>
-    <t>/ testReqTraceUseCases</t>
-  </si>
-  <si>
-    <t>testReqTraceUseCases/ Requirement 1</t>
-  </si>
-  <si>
-    <t>testReqTraceUseCases/ Requirement 2</t>
-  </si>
-  <si>
-    <t>testReqTraceUseCases/ Requirement 3</t>
-  </si>
-  <si>
-    <t>testReqTraceUseCases/ Requirement 4</t>
-  </si>
-  <si>
-    <t>testReqTraceUseCases/ Requirement 5</t>
-  </si>
-  <si>
-    <t>testReqTraceUseCases/ Requirement 6</t>
-  </si>
-  <si>
-    <t>testReqTraceUseCases/ Requirement 7</t>
+    <t>Component 1.1.Component 1.1.1</t>
+  </si>
+  <si>
+    <t>Component 1.Component 1.2</t>
+  </si>
+  <si>
+    <t>testReqTrace.Component 2</t>
+  </si>
+  <si>
+    <t>testReqTrace.Component 3</t>
+  </si>
+  <si>
+    <t>testReqTrace.Component 4</t>
+  </si>
+  <si>
+    <t>testReqTrace.Component 6</t>
+  </si>
+  <si>
+    <t>.testReqTraceUseCases</t>
+  </si>
+  <si>
+    <t>testReqTraceUseCases.Requirement 1</t>
+  </si>
+  <si>
+    <t>testReqTraceUseCases.Requirement 2</t>
+  </si>
+  <si>
+    <t>testReqTraceUseCases.Requirement 3</t>
+  </si>
+  <si>
+    <t>testReqTraceUseCases.Requirement 4</t>
+  </si>
+  <si>
+    <t>testReqTraceUseCases.Requirement 5</t>
+  </si>
+  <si>
+    <t>testReqTraceUseCases.Requirement 6</t>
+  </si>
+  <si>
+    <t>testReqTraceUseCases.Requirement 7</t>
   </si>
 </sst>
 </file>
@@ -120,7 +120,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,24 +135,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="00FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF58FA58"/>
-        <bgColor rgb="00FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF2E2EFE"/>
-        <bgColor rgb="00FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
         <bgColor rgb="00FFFFFF"/>
       </patternFill>
@@ -250,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="bottom" horizontal="general"/>
@@ -341,27 +323,15 @@
       <alignment vertical="bottom" horizontal="general" textRotation="90"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="bottom" horizontal="general" textRotation="90"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="bottom" horizontal="general" textRotation="90"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="bottom" horizontal="general"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="bottom" horizontal="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="bottom" horizontal="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="bottom" horizontal="center"/>
       <protection/>
     </xf>
@@ -369,7 +339,7 @@
       <alignment vertical="bottom" horizontal="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="bottom" horizontal="center"/>
       <protection/>
     </xf>
@@ -381,11 +351,11 @@
       <alignment vertical="bottom" horizontal="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="bottom" horizontal="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="bottom" horizontal="center"/>
       <protection/>
     </xf>
@@ -393,7 +363,7 @@
       <alignment vertical="bottom" horizontal="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="bottom" horizontal="center"/>
       <protection/>
     </xf>
@@ -424,7 +394,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="40.37890625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="39.2109375" style="15" customWidth="1"/>
     <col min="3" max="8" width="4.0" style="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -453,16 +423,16 @@
       <c r="H2" s="22"/>
     </row>
     <row r="4">
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="23" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="23" t="s">
@@ -506,12 +476,12 @@
         <f t="shared" ref="B6:B13" si="0">COUNTA(C6:H6)</f>
         <v/>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
@@ -521,31 +491,31 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="27">
         <v>50</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="33"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="30"/>
     </row>
     <row r="8">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="15">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32">
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="29">
         <v>40</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="33"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="30"/>
     </row>
     <row r="9">
       <c r="A9" s="15" t="s">
@@ -555,12 +525,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="35"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="32"/>
     </row>
     <row r="10">
       <c r="A10" s="15" t="s">
@@ -570,46 +540,46 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32">
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29">
         <v>30</v>
       </c>
-      <c r="H10" s="33"/>
+      <c r="H10" s="30"/>
     </row>
     <row r="11">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="15">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32">
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29">
         <v>30</v>
       </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="33"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="30"/>
     </row>
     <row r="12">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="15">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="35"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="32"/>
     </row>
     <row r="13">
       <c r="A13" s="15" t="s">
@@ -619,12 +589,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39">
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="36">
         <v>30</v>
       </c>
     </row>
